--- a/TestData/spdata.xlsx
+++ b/TestData/spdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CBZ\eclipse-workspace\OpencartEcom\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630E7367-BA32-40D4-B237-DC637F42577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C81206-FE96-4222-AAFF-E59C99AF46C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Product names</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>canon</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -360,47 +372,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>